--- a/data/trans_orig/IP2907_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP2907_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72959E73-BD5E-4094-B186-ACDB8A18CB2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{184F2BA3-8108-4EFE-AC13-4A494A1B2EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4F10DE7E-E8D2-43DD-A95B-EAB4BA520E45}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{91EBE50B-842A-4EEF-967D-93A7DB66E3B2}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -101,55 +101,55 @@
     <t>20,42%</t>
   </si>
   <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
   </si>
   <si>
     <t>13,1%</t>
   </si>
   <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
   </si>
   <si>
     <t>16,95%</t>
   </si>
   <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
   </si>
   <si>
     <t>79,58%</t>
   </si>
   <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
   </si>
   <si>
     <t>86,9%</t>
   </si>
   <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
   </si>
   <si>
     <t>83,05%</t>
   </si>
   <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -158,25 +158,25 @@
     <t>19,02%</t>
   </si>
   <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
   </si>
   <si>
     <t>20,74%</t>
   </si>
   <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
   </si>
   <si>
     <t>19,83%</t>
   </si>
   <si>
-    <t>17,63%</t>
+    <t>17,41%</t>
   </si>
   <si>
     <t>22,44%</t>
@@ -185,19 +185,19 @@
     <t>80,98%</t>
   </si>
   <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
   </si>
   <si>
     <t>79,26%</t>
   </si>
   <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
   </si>
   <si>
     <t>80,17%</t>
@@ -206,7 +206,7 @@
     <t>77,56%</t>
   </si>
   <si>
-    <t>82,37%</t>
+    <t>82,59%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -215,109 +215,109 @@
     <t>20,2%</t>
   </si>
   <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
   </si>
   <si>
     <t>16,08%</t>
   </si>
   <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
   </si>
   <si>
     <t>18,31%</t>
   </si>
   <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
   </si>
   <si>
     <t>79,8%</t>
   </si>
   <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
   </si>
   <si>
     <t>83,92%</t>
   </si>
   <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
   </si>
   <si>
     <t>81,69%</t>
   </si>
   <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
   </si>
   <si>
     <t>19,42%</t>
   </si>
   <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
   </si>
   <si>
     <t>19,01%</t>
   </si>
   <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
   </si>
   <si>
     <t>19,23%</t>
   </si>
   <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
   </si>
   <si>
     <t>80,58%</t>
   </si>
   <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
   </si>
   <si>
     <t>80,99%</t>
   </si>
   <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
   </si>
   <si>
     <t>80,77%</t>
   </si>
   <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -732,7 +732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F9A237-4113-4148-B698-8B1CCCDFAC56}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D68F0FAF-10F9-47D3-AAAD-E25194C201DD}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/IP2907_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP2907_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{184F2BA3-8108-4EFE-AC13-4A494A1B2EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{48788B21-F838-4010-AE31-1E4BD577C73B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{91EBE50B-842A-4EEF-967D-93A7DB66E3B2}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{81820C02-ACB5-4EB0-AFEB-84C823C7E7FC}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
   <si>
     <t>Menores según si su lactancia durante los primeros meses de vida fue artificial en 2023 (Tasa respuesta: 95,47%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,259 +65,238 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
     <t>Secundarios</t>
   </si>
   <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
   </si>
   <si>
     <t>16,53%</t>
   </si>
   <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
   </si>
   <si>
     <t>83,47%</t>
   </si>
   <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -732,8 +711,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D68F0FAF-10F9-47D3-AAAD-E25194C201DD}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B1CB49-47BE-41BE-BB2C-F81B7E546119}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -850,96 +829,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="D4" s="7">
+        <v>6475</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>11681</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>18155</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>55</v>
+      </c>
+      <c r="D5" s="7">
+        <v>46393</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="I5" s="7">
-        <v>1171</v>
+        <v>46067</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="N5" s="7">
-        <v>1171</v>
+        <v>92460</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -948,151 +931,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>66</v>
+      </c>
+      <c r="D6" s="7">
+        <v>52868</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="I6" s="7">
-        <v>1171</v>
+        <v>57748</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>142</v>
       </c>
       <c r="N6" s="7">
-        <v>1171</v>
+        <v>110615</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="D7" s="7">
-        <v>11217</v>
+        <v>87674</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="I7" s="7">
-        <v>6458</v>
+        <v>98230</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>28</v>
+        <v>245</v>
       </c>
       <c r="N7" s="7">
-        <v>17675</v>
+        <v>185903</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>59</v>
+        <v>487</v>
       </c>
       <c r="D8" s="7">
-        <v>43718</v>
+        <v>332244</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>55</v>
+        <v>510</v>
       </c>
       <c r="I8" s="7">
-        <v>42853</v>
+        <v>402674</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>114</v>
+        <v>997</v>
       </c>
       <c r="N8" s="7">
-        <v>86570</v>
+        <v>734918</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1101,153 +1086,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>76</v>
+        <v>619</v>
       </c>
       <c r="D9" s="7">
-        <v>54935</v>
+        <v>419918</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>66</v>
+        <v>623</v>
       </c>
       <c r="I9" s="7">
-        <v>49311</v>
+        <v>500904</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>142</v>
+        <v>1242</v>
       </c>
       <c r="N9" s="7">
-        <v>104245</v>
+        <v>920821</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="D10" s="7">
-        <v>90754</v>
+        <v>23277</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>132</v>
+        <v>49</v>
       </c>
       <c r="I10" s="7">
-        <v>88512</v>
+        <v>35997</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>245</v>
+        <v>84</v>
       </c>
       <c r="N10" s="7">
-        <v>179265</v>
+        <v>59274</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>510</v>
+        <v>183</v>
       </c>
       <c r="D11" s="7">
-        <v>386275</v>
+        <v>119530</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>487</v>
+        <v>181</v>
       </c>
       <c r="I11" s="7">
-        <v>338283</v>
+        <v>142632</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>997</v>
+        <v>364</v>
       </c>
       <c r="N11" s="7">
-        <v>724559</v>
+        <v>262161</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1256,153 +1241,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>623</v>
+        <v>218</v>
       </c>
       <c r="D12" s="7">
-        <v>477029</v>
+        <v>142807</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>619</v>
+        <v>230</v>
       </c>
       <c r="I12" s="7">
-        <v>426795</v>
+        <v>178629</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1242</v>
+        <v>448</v>
       </c>
       <c r="N12" s="7">
-        <v>903824</v>
+        <v>321435</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>49</v>
+        <v>178</v>
       </c>
       <c r="D13" s="7">
-        <v>34350</v>
+        <v>117425</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>35</v>
+        <v>179</v>
       </c>
       <c r="I13" s="7">
-        <v>23252</v>
+        <v>145907</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>84</v>
+        <v>357</v>
       </c>
       <c r="N13" s="7">
-        <v>57602</v>
+        <v>263332</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>181</v>
+        <v>725</v>
       </c>
       <c r="D14" s="7">
-        <v>135719</v>
+        <v>498167</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>183</v>
+        <v>750</v>
       </c>
       <c r="I14" s="7">
-        <v>121321</v>
+        <v>591373</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
-        <v>364</v>
+        <v>1475</v>
       </c>
       <c r="N14" s="7">
-        <v>257040</v>
+        <v>1089540</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1411,216 +1396,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>230</v>
+        <v>903</v>
       </c>
       <c r="D15" s="7">
-        <v>170069</v>
+        <v>615592</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>218</v>
+        <v>929</v>
       </c>
       <c r="I15" s="7">
-        <v>144573</v>
+        <v>737280</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>448</v>
+        <v>1832</v>
       </c>
       <c r="N15" s="7">
-        <v>314642</v>
+        <v>1352872</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>179</v>
-      </c>
-      <c r="D16" s="7">
-        <v>136321</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" s="7">
-        <v>178</v>
-      </c>
-      <c r="I16" s="7">
-        <v>118222</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M16" s="7">
-        <v>357</v>
-      </c>
-      <c r="N16" s="7">
-        <v>254543</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>750</v>
-      </c>
-      <c r="D17" s="7">
-        <v>565711</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="A16" t="s">
         <v>87</v>
       </c>
-      <c r="H17" s="7">
-        <v>726</v>
-      </c>
-      <c r="I17" s="7">
-        <v>503628</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1476</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1069339</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>929</v>
-      </c>
-      <c r="D18" s="7">
-        <v>702032</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>904</v>
-      </c>
-      <c r="I18" s="7">
-        <v>621850</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1833</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1323882</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
